--- a/documentation/B2C Commerce-PRIOS_Integration_Test_Cases.xlsx
+++ b/documentation/B2C Commerce-PRIOS_Integration_Test_Cases.xlsx
@@ -687,8 +687,8 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,28 +996,28 @@
     </row>
     <row r="11" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>17</v>
@@ -1025,28 +1025,28 @@
     </row>
     <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>17</v>
